--- a/backend/accounting.xlsx
+++ b/backend/accounting.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Event</t>
-  </si>
-  <si>
-    <t>Phoenix, Arizona</t>
   </si>
   <si>
     <t>Bought meals for three people who would have gone hungry</t>
@@ -8523,13 +8520,13 @@
         <v>45090</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -8620,25 +8617,25 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s" s="21">
         <v>2</v>
       </c>
       <c r="C1" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="21">
         <v>13</v>
       </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="21">
+      <c r="B2" t="s" s="21">
         <v>14</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>15</v>
       </c>
       <c r="C2" s="22">
         <v>3</v>
@@ -8648,10 +8645,10 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="22">
         <v>40</v>
@@ -8661,16 +8658,16 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="22">
         <v>25</v>
       </c>
       <c r="D4" t="s" s="21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="10"/>
     </row>
